--- a/document/Server Price.xlsx
+++ b/document/Server Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIT-PROJECTS\bit.wmsPHP\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9C58B2-EF7F-4DE6-9802-8A4085CBBECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00555F5A-5688-4869-9626-3A3372EE6AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8BAB5173-1C46-4DFA-A48B-38AB9A76D70A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>HARGA SERVER VPS MONTHLY</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>LINUX UBUNTU 20.4</t>
+  </si>
+  <si>
+    <t>*Tidak termasuk PPN</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -599,15 +602,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F229A597-5EA7-4DA9-A0D4-28B7C44C51C9}">
-  <dimension ref="B2:I20"/>
+  <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
     <col min="7" max="7" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -699,6 +702,11 @@
     <row r="20" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
